--- a/01_KHOA_LUAN_TN_DOCUMENT/8. TESTING/01.Sprint1/Test Case Sprint1.xlsx
+++ b/01_KHOA_LUAN_TN_DOCUMENT/8. TESTING/01.Sprint1/Test Case Sprint1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\Khoa luan\Do An Chuyen Nganh\DoAnChuyenNganh_COST_CS445AA\8. KIỂM THỬ\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\Khoa luan\Do An Chuyen Nganh\Final Project\8. TESTING\Test Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D993C60-48BA-4211-9D5E-0C0B10574396}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928F502-6B7E-4FC0-A908-39255B188EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" tabRatio="848" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19710" windowHeight="11760" tabRatio="848" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="270">
   <si>
     <t>Total case</t>
   </si>
@@ -111,12 +111,6 @@
     <t>Chức năng</t>
   </si>
   <si>
-    <t>Tên tờ</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
     <t>TEST CASE SYSTEM Sprint 1</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
   </si>
   <si>
     <t>Author</t>
-  </si>
-  <si>
-    <t>Đăng kí</t>
   </si>
   <si>
     <t>Đăng nhập thành công khi nhập data hợp lệ đến textbox [Địa chỉ Email] và textbox [Mật khẩu]</t>
@@ -262,9 +253,6 @@
     <t>Hiển thị message:"Vui lòng nhập Password." tại field [Mật khẩu] và "Mật khẩu xác nhận không trùng với mật khẩu" tại field [Nhập lại mật khẩu]</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị message:"User email alreary exists." </t>
-  </si>
-  <si>
     <t>1. Nhập Họ tên: thuy11
 2. Nhập địa chỉ Email: thuy@gmail.com
 3. Nhập Mật khẩu: 1234567
@@ -404,32 +392,6 @@
     <t>1. Nhập Địa chỉ Email : nguyenxuantrin2310@gmall.com
 2. Nhập Mật khẩu hợp lệ: 206079276
 3. Click button [ Đăng nhập ]</t>
-  </si>
-  <si>
-    <t>Đăng kí thất bại khi nhập data đến [Nhập Mật khẩu] có khoảng trắng những textbox còn lại nhập hợp lệ.</t>
-  </si>
-  <si>
-    <t>1. Nhập Họ tên: phuocddd
-2. Nhập địa chỉ Email: phuocnguyen12@gmail.com
-3. Nhập Mật khẩu: 123456 7
-4.Nhập lại Mật khẩu: 123456 7 
-5.Click button [ Đăng kí ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị message:"Mật khẩu không được chứa khoảng trắng" tại field [Nhập mật khẩu] </t>
-  </si>
-  <si>
-    <t>Đăng kí thất bại khi nhập data đến [Nhập Mật khẩu] có ký tự đặc biệt những textbox còn lại nhập hợp lệ.</t>
-  </si>
-  <si>
-    <t>1. Nhập Họ tên: phuocddd
-2. Nhập địa chỉ Email: phuocnguyen12@gmail.com
-3. Nhập Mật khẩu: 1234567@12*^
-4.Nhập lại Mật khẩu: 1234567@12*^
-5.Click button [ Đăng kí ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị message:"Mật khẩu không được chứa ký tự đặc biệt" tại field [Nhập mật khẩu] </t>
   </si>
   <si>
     <t xml:space="preserve">Hiển thị message:"Email Email không hợp lệ." </t>
@@ -829,16 +791,10 @@
     <t>QLXDL-02</t>
   </si>
   <si>
-    <t>Kiểm tra format của các item trong màn hình [Quản lí xe]</t>
-  </si>
-  <si>
     <t>QLXDL-01</t>
   </si>
   <si>
     <t>21/3/2021</t>
-  </si>
-  <si>
-    <t>Hiển thị "Không thành công" trên màn hình thêm xe của đại lý.</t>
   </si>
   <si>
     <t>1.Ảnh xe:
@@ -853,9 +809,6 @@
 10.Kích chọn nút Tạo mới</t>
   </si>
   <si>
-    <t>Thêm xe không thành công khi không nhập gì cả</t>
-  </si>
-  <si>
     <t>TXCDL-Q010</t>
   </si>
   <si>
@@ -877,9 +830,6 @@
 10.Kích chọn nút Tạo mới</t>
   </si>
   <si>
-    <t>Thêm xe thành công khi không nhập data đến textbox[Loại xe] những textbox còn lại nhập hợp lệ.</t>
-  </si>
-  <si>
     <t>TXCDL-Q009</t>
   </si>
   <si>
@@ -895,9 +845,6 @@
 10.Kích chọn nút Tạo mới</t>
   </si>
   <si>
-    <t>Thêm xe thành công khi không nhập data đến textbox[Giá] những textbox còn lại nhập hợp lệ.</t>
-  </si>
-  <si>
     <t>TXCDL-Q008</t>
   </si>
   <si>
@@ -913,49 +860,13 @@
 10.Kích chọn nút Tạo mới</t>
   </si>
   <si>
-    <t>Thêm xe thành công khi không nhập data đến textbox[Kiểu xe] những textbox còn lại nhập hợp lệ.</t>
-  </si>
-  <si>
     <t>TXCDL-Q007</t>
   </si>
   <si>
-    <t>1.Ảnh xe: 
-2.Kiểu xe:Xe Máy
-3.Hãng xe: Yamaha
-4.Loại xe: Xe Ga
-5.Thành phố: Hà Nội
-6.Tên xe: Lead
-7.Giá: 220000
-8.Hình ảnh:
-9.Ghi chú:
-10.Kích chọn nút Tạo mới</t>
-  </si>
-  <si>
-    <t>Thêm xe thành công khi không nhập data đến textbox[Ảnh xe] những textbox còn lại nhập hợp lệ.</t>
-  </si>
-  <si>
     <t>TXCDL-Q006</t>
   </si>
   <si>
-    <t>1.Ảnh xe: 
-2.Kiểu xe:
-3.Hãng xe: Honda
-4.Loại xe: 
-5.Thành phố: Hà Nội
-6.Tên xe: Lead
-7.Giá: 
-8.Hình ảnh:
-9.Ghi chú:
-10.Kích chọn nút Tạo mới</t>
-  </si>
-  <si>
-    <t>Thêm xe thành công khi không nhập data đến textbox[Ảnh xe],[Kiểu xe],[Loại xe],[Giá],[Hình ảnh],[Ghi chú], những textbox còn lại nhập hợp lệ.</t>
-  </si>
-  <si>
     <t>TXCDL-Q005</t>
-  </si>
-  <si>
-    <t>Hiển thị nhắc nhở "Vui lòng điền vào trường này"</t>
   </si>
   <si>
     <t>1.Ảnh xe: sonic.jpg
@@ -979,9 +890,6 @@
     <t>26/3/2020</t>
   </si>
   <si>
-    <t>Hiển thị text"Thành Công"</t>
-  </si>
-  <si>
     <t>Hiển thị thông báo "chưa chọn hãng xe"</t>
   </si>
   <si>
@@ -1038,12 +946,283 @@
   <si>
     <t>Thêm xe của đại lý</t>
   </si>
+  <si>
+    <t xml:space="preserve">Hiển thị message:"Email này đã tồn tại." </t>
+  </si>
+  <si>
+    <t>Lỗi code</t>
+  </si>
+  <si>
+    <t>Vẫn hiển thị xe để chọn</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo:"Bạn đã thuê xe thành công"</t>
+  </si>
+  <si>
+    <t>TXCDL-Q011</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi chọn combobox[Hãng xe] có giá trị là [Tên Khác] và nhập dưới 3 kí tự.</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: sonic.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: SY
+4.Loại xe: Xe Ga
+5.Thành phố: Hà Nội
+6.Tên xe: Lead
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>TXCDL-Q012</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi chọn combobox[Hãng xe] có giá trị là [Tên Khác] và nhập trên 15 kí tự.</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: sonic.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: HonDaSuzukiSymKiY
+4.Loại xe: Xe Ga
+5.Thành phố: Hà Nội
+6.Tên xe: Lead
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Thành công" trên màn hình thêm xe của đại lý.</t>
+  </si>
+  <si>
+    <t>TXCDL-Q013</t>
+  </si>
+  <si>
+    <t>Thêm xe thành công khi chọn combobox[Hãng xe] có giá trị là [Tên Khác] và nhập 3 kí tự</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: sonic.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: SYM
+4.Loại xe: Xe Ga
+5.Thành phố: Hà Nội
+6.Tên xe: Lead
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>TXCDL-Q014</t>
+  </si>
+  <si>
+    <t>Thêm xe thành công khi chọn combobox[Hãng xe] có giá trị là [Tên Khác] và nhập 15 kí tự.</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: sonic.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: LamborghiniSVML
+4.Loại xe: Xe Ga
+5.Thành phố: Hà Nội
+6.Tên xe: Lead
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>TXCDL-Q015</t>
+  </si>
+  <si>
+    <t>Thêm xe thành công khi chọn combobox[Hãng xe] có giá trị là [Tên Khác] và nhập 6 kí tự.</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: sonic.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: Yamaha
+4.Loại xe: Xe Ga
+5.Thành phố: Hà Nội
+6.Tên xe: Lead
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>TXCDL-Q016</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi nhập "Tên Xe" dưới 2 kí tự.</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: Attila.jpg
+2.Kiểu xe: Xe Ga
+3.Hãng xe: Suzuki
+4.Loại xe: Xe Ga
+5.Thành phố: Hải Phòng
+6.Tên xe: S
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Tên xe phải nhập tối thiểu 2 và tối đa 20 kí tự" trên màn hình thêm xe của đại lý.</t>
+  </si>
+  <si>
+    <t>TXCDL-Q017</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi nhập "Tên Xe" trên 20 kí tự</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: ab.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: Honda
+4.Loại xe: Xe Ga
+5.Thành phố: Đà Nẵng
+6.Tên xe: LeadVisonSymhgggytkss
+7.Giá: 30000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>TXCDL-Q018</t>
+  </si>
+  <si>
+    <t>Thêm xe thành công khi nhập "Tên Xe" có 2 kí tự</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: sonic.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: Honda
+4.Loại xe: Xe Ga
+5.Thành phố: Quảng Nam
+6.Tên xe: Sh
+7.Giá: 300000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>TXCDL-Q019</t>
+  </si>
+  <si>
+    <t>Thêm xe thành công khi nhập "Tên Xe" có 20 kí tự</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: exciter.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: Yamaha
+4.Loại xe: Xe Số
+5.Thành phố: Quảng Bình
+6.Tên xe: lamborghini aventado
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>TXCDL-Q020</t>
+  </si>
+  <si>
+    <t>Thêm xe thành công khi nhập "Tên Xe" có  7 kí tự</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: sonic.jpg
+2.Kiểu xe: Xe Máy
+3.Hãng xe: Yamaha
+4.Loại xe: Xe Ga
+5.Thành phố: Hà Nội
+6.Tên xe: Exciter
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>Số Test Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng cộng: </t>
+  </si>
+  <si>
+    <t>Kiểm tra format của các item trong màn hình [Quản lí xe của đại lí]</t>
+  </si>
+  <si>
+    <t>Hiển thị nhắc nhở "Vui lòng điền vào trường này" tại textbox[Tên xe]</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi không nhập data đến textbox[Ảnh xe].</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: 
+2.Kiểu xe:Xe Máy
+3.Hãng xe: Yamaha
+4.Loại xe: Xe Ga
+5.Thành phố: Hà Nội
+6.Tên xe: Lead
+7.Giá: 220000
+8.Hình ảnh:
+9.Ghi chú:abc
+10.Kích chọn nút Tạo mới</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo"Chưa nhập hình ảnh" trên màn hình thêm xe của đại lý.</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi không nhập data đến textbox[Kiểu xe].</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo"Chưa chọn kiểu xe!" trên màn hình thêm xe của đại lý</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi không nhập data đến textbox[Giá].</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo"Giá Phải Lớn Hơn Hoặc Bằng 100.000" trên màn hình thêm xe của đại lý.</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi không nhập data đến textbox[Loại xe].</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Chưa chọn loại xe ! " trên màn hình thêm xe của đại lý.</t>
+  </si>
+  <si>
+    <t>Thêm xe không thành công khi không nhập gì cả.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo"Phải điền thông tin vào các trường" trên màn hình thêm xe của đại lý.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Hãng xe phải nhập tối thiểu 3 và tối đa là 15 kí tự" trên màn hình thêm xe của đại lý.</t>
+  </si>
+  <si>
+    <t>Thêm xe thành công khi không chọn Ảnh xe nhưng thêm link ảnh Ở text[Hình Ảnh].</t>
+  </si>
+  <si>
+    <t>1.Ảnh xe: 
+2.Kiểu xe: Xe Máy
+3.Hãng xe: Yamaha
+4.Loại xe: Xe Ga
+5.Thành phố: Hà Nội
+6.Tên xe: Exciter
+7.Giá: 220000
+8.Hình ảnh:
+https://image.xedoisong.vn/w700/Uploaded/2019/kbjoplb/2018_11_17/lamborghini_sc18/xedoisong_one_off_supercar_lamborghini_aventador_sc18_squadra_corse_2018_h1_kesf.jpg
+9.Ghi chú: xe 125cc
+10.Kích chọn nút Tạo mới</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,6 +1359,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1243,7 +1429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1371,244 +1557,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1637,6 +1585,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1649,7 +1853,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1781,7 +1985,6 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1789,6 +1992,222 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,6 +2216,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1809,225 +2231,113 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2793,7 +3103,7 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,44 +3112,45 @@
     <col min="6" max="6" width="5.125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.875" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="8"/>
+    <col min="9" max="9" width="18.125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="A1" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="A2" s="139"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -2862,22 +3173,22 @@
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
+      <c r="B4" s="140" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
@@ -2936,18 +3247,16 @@
       <c r="C8" s="30"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
-      <c r="F8" s="145" t="s">
+      <c r="F8" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="145" t="s">
+      <c r="G8" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="145" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="145" t="s">
-        <v>24</v>
-      </c>
+      <c r="H8" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" s="117"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -2964,13 +3273,13 @@
       <c r="F9" s="31">
         <v>1</v>
       </c>
-      <c r="G9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="31"/>
+      <c r="G9" s="118" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="93">
+        <v>9</v>
+      </c>
+      <c r="I9" s="115"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
@@ -2987,13 +3296,13 @@
       <c r="F10" s="31">
         <v>2</v>
       </c>
-      <c r="G10" s="143" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="143"/>
+      <c r="G10" s="119" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="113">
+        <v>13</v>
+      </c>
+      <c r="I10" s="115"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -3007,16 +3316,16 @@
       <c r="C11" s="30"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="142">
+      <c r="F11" s="93">
         <v>3</v>
       </c>
-      <c r="G11" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="H11" s="146" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" s="144"/>
+      <c r="G11" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="114">
+        <v>9</v>
+      </c>
+      <c r="I11" s="116"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
@@ -3026,16 +3335,16 @@
       <c r="C12" s="30"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="142">
+      <c r="F12" s="93">
         <v>4</v>
       </c>
-      <c r="G12" s="146" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="146" t="s">
-        <v>235</v>
-      </c>
-      <c r="I12" s="144"/>
+      <c r="G12" s="120" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="114">
+        <v>10</v>
+      </c>
+      <c r="I12" s="116"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
@@ -3045,16 +3354,16 @@
       <c r="C13" s="30"/>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="142">
+      <c r="F13" s="93">
         <v>5</v>
       </c>
-      <c r="G13" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="146" t="s">
-        <v>236</v>
-      </c>
-      <c r="I13" s="144"/>
+      <c r="G13" s="120" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="114">
+        <v>7</v>
+      </c>
+      <c r="I13" s="116"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
@@ -3064,28 +3373,33 @@
       <c r="C14" s="30"/>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="142">
+      <c r="F14" s="113">
         <v>6</v>
       </c>
-      <c r="G14" s="146" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="146" t="s">
-        <v>237</v>
-      </c>
-      <c r="I14" s="144"/>
+      <c r="G14" s="121" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="122">
+        <v>20</v>
+      </c>
+      <c r="I14" s="116"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="124" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="123">
+        <f>SUM(H9:H14)</f>
+        <v>68</v>
+      </c>
       <c r="I15" s="42"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
@@ -3148,441 +3462,441 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48059EE1-3566-48CB-8529-A72AFD3FDE3C}">
   <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="28.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="9" max="9" width="8.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="130"/>
+      <c r="A3" s="164" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="165"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="166"/>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="117" t="s">
+      <c r="A4" s="167"/>
+      <c r="B4" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="G4" s="170" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="172">
         <v>7</v>
       </c>
-      <c r="C5" s="114">
+      <c r="C5" s="173">
         <v>5</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="174">
         <v>2</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="174"/>
+      <c r="F5" s="174">
         <v>0</v>
       </c>
-      <c r="F5" s="102"/>
+      <c r="G5" s="175"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="177">
         <v>2</v>
       </c>
-      <c r="C6" s="100">
-        <v>2</v>
-      </c>
-      <c r="D6" s="113">
+      <c r="C6" s="178">
+        <v>1</v>
+      </c>
+      <c r="D6" s="177">
         <v>0</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="178"/>
+      <c r="F6" s="178">
         <v>0</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="G6" s="179"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="129" t="s">
+      <c r="D9" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="128" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="111" t="s">
+      <c r="F9" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112" t="s">
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112" t="s">
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112" t="s">
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="84" t="s">
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="84" t="s">
+      <c r="H11" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="84" t="s">
+      <c r="K11" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="84" t="s">
-        <v>30</v>
+      <c r="N11" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="135" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="127" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="77" t="s">
+      <c r="A12" s="137" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="1:15" ht="66" x14ac:dyDescent="0.2">
+      <c r="A13" s="137" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="69"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="69"/>
+    </row>
+    <row r="14" spans="1:15" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="69"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="69"/>
+    </row>
+    <row r="15" spans="1:15" ht="66" x14ac:dyDescent="0.2">
+      <c r="A15" s="137" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="69"/>
+    </row>
+    <row r="16" spans="1:15" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="84" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="123" t="s">
+      <c r="C16" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="69"/>
+    </row>
+    <row r="17" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A17" s="137" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="I12" s="122" t="s">
+      <c r="C17" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="79"/>
-    </row>
-    <row r="13" spans="1:15" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="I13" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="79"/>
-    </row>
-    <row r="14" spans="1:15" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="125" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="125" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="I14" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="79"/>
-    </row>
-    <row r="15" spans="1:15" ht="66" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15" s="127" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="125" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="125" t="s">
-        <v>182</v>
-      </c>
-      <c r="F15" s="125" t="s">
-        <v>182</v>
-      </c>
-      <c r="G15" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="79"/>
-    </row>
-    <row r="16" spans="1:15" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="126" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="E16" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="I16" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="79"/>
-    </row>
-    <row r="17" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="126" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="125" t="s">
-        <v>175</v>
-      </c>
-      <c r="E17" s="124" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="124" t="s">
-        <v>173</v>
-      </c>
-      <c r="G17" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="I17" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="79"/>
-    </row>
-    <row r="18" spans="1:15" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="126" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="124" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="124" t="s">
-        <v>167</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="123" t="s">
-        <v>166</v>
-      </c>
-      <c r="I18" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="L18" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="79"/>
+      <c r="E17" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="69"/>
+    </row>
+    <row r="18" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A18" s="137" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -3592,13 +3906,14 @@
     <mergeCell ref="G9:O9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="M10" xr:uid="{1D3A23F2-E773-4097-A3D8-EE8E589C5B33}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N18" xr:uid="{D419BB54-E2F0-4EA5-AC0F-DA7F641FB993}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="M10" xr:uid="{5A0B364F-8ABB-4A1B-8670-D6F055602F2C}"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N18" xr:uid="{CA8B5CCC-8562-4919-8D96-89EA0C65A721}">
       <formula1>"Passed,Failed,Not Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O18 G12:G18 J12:J18" xr:uid="{CA66D388-F51E-4BDA-9DAA-F25BD2B8AC8C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O18 J12:J18 G12:G18" xr:uid="{4CFEFEB8-0BF5-42FC-B53A-8CF81F3246A9}">
       <formula1>"Pass,Fail,Not Run"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3623,10 +3938,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EE9CF0-BAD6-4C82-A358-B07DF23B4E9A}">
-  <dimension ref="A2:O21"/>
+  <dimension ref="A2:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3634,9 +3949,9 @@
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.25" customWidth="1"/>
-    <col min="5" max="5" width="33.125" customWidth="1"/>
-    <col min="6" max="6" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="47.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
@@ -3646,537 +3961,898 @@
   <sheetData>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="141" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="139"/>
+      <c r="A3" s="180" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="182"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="138"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="G4" s="75" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="63">
+        <v>20</v>
+      </c>
+      <c r="C5" s="63">
+        <v>18</v>
+      </c>
+      <c r="D5" s="63">
+        <v>2</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63">
+        <v>0</v>
+      </c>
+      <c r="G5" s="90"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="63">
+        <v>2</v>
+      </c>
+      <c r="C6" s="63">
+        <v>2</v>
+      </c>
+      <c r="D6" s="63">
+        <v>0</v>
+      </c>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63">
+        <v>0</v>
+      </c>
+      <c r="G6" s="90"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="73">
-        <v>9</v>
-      </c>
-      <c r="D5" s="73">
-        <v>1</v>
-      </c>
-      <c r="E5" s="73">
-        <v>0</v>
-      </c>
-      <c r="F5" s="136"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="137" t="s">
+      <c r="E9" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="154" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="162" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="162"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="73">
-        <v>1</v>
-      </c>
-      <c r="C6" s="73">
-        <v>1</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73">
-        <v>0</v>
-      </c>
-      <c r="F6" s="136"/>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="111" t="s">
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="84" t="s">
+      <c r="H11" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="84" t="s">
+      <c r="K11" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="84" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="78" t="s">
+      <c r="N11" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="33" x14ac:dyDescent="0.2">
+      <c r="A12" s="137" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A13" s="137" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J13" s="69"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="69"/>
+    </row>
+    <row r="14" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A14" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>202</v>
+      </c>
+      <c r="L14" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="69"/>
+    </row>
+    <row r="15" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A15" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>255</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="69"/>
+    </row>
+    <row r="16" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A16" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" s="84" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="69"/>
+    </row>
+    <row r="17" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A17" s="137" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="69"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="69"/>
+    </row>
+    <row r="18" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A18" s="137" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="G18" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" s="69"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
+      <c r="O18" s="69"/>
+    </row>
+    <row r="19" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A19" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="69"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="69"/>
+    </row>
+    <row r="20" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A20" s="137" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="69"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="69"/>
+    </row>
+    <row r="21" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A21" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="69"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="69"/>
+    </row>
+    <row r="22" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A22" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="84" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="110"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="69"/>
+    </row>
+    <row r="23" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A23" s="137" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="69"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="69"/>
+    </row>
+    <row r="24" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A24" s="137" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="84" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="69"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="69"/>
+    </row>
+    <row r="25" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A25" s="137" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="69"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A26" s="137" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="127" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I12" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="119"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="79"/>
-    </row>
-    <row r="13" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A13" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" s="125" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="F13" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="G13" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="79"/>
-    </row>
-    <row r="14" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A14" s="78" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="125" t="s">
+      <c r="B26" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J26" s="69"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="69"/>
+    </row>
+    <row r="27" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A27" s="137" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="F27" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="G27" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="69"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="69"/>
+    </row>
+    <row r="28" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A28" s="137" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="83" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="125" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>224</v>
-      </c>
-      <c r="G14" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" s="134" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="133" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="M14" s="119"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="79"/>
-    </row>
-    <row r="15" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A15" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="127" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="G15" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="119"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="79"/>
-    </row>
-    <row r="16" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" s="126" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="F16" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I16" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="79"/>
-    </row>
-    <row r="17" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="126" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="E17" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="F17" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="G17" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="79"/>
-    </row>
-    <row r="18" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="126" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="G18" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="79"/>
-    </row>
-    <row r="19" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="125" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I19" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="79"/>
-    </row>
-    <row r="20" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="B20" s="126" t="s">
-        <v>205</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="79"/>
-    </row>
-    <row r="21" spans="1:15" ht="165" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="126" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="F21" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="121" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="79"/>
+      <c r="F28" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28" s="69"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="69"/>
+    </row>
+    <row r="29" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A29" s="137" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="83" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="69"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="69"/>
+    </row>
+    <row r="30" spans="1:15" ht="165" x14ac:dyDescent="0.2">
+      <c r="A30" s="137" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" s="69"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="69"/>
+    </row>
+    <row r="31" spans="1:15" ht="231" x14ac:dyDescent="0.2">
+      <c r="A31" s="137" t="s">
+        <v>249</v>
+      </c>
+      <c r="B31" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" s="88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="J31" s="69"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="G9:O9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:O10"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O21 G12:G21 J12:J21" xr:uid="{8A373EB3-0C31-484C-895B-77A0B9DE7AEE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J31 G12:G31 O12:O31" xr:uid="{405C17E2-DE08-4A70-9459-D131BFA7F1C8}">
       <formula1>"Pass,Fail,Not Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N19" xr:uid="{71663208-F941-4364-A327-CA665E337406}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N18" xr:uid="{70C29E77-828C-4AAD-A07E-CDE5038F255D}">
       <formula1>"Passed,Failed,Not Done"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="M10" xr:uid="{88F87DD4-19C3-4D40-933F-E8F581A5059A}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="M10" xr:uid="{084BD745-1930-476C-A8DA-F2385C41754C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4217,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4257,15 +4933,15 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="61"/>
+      <c r="A3" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
@@ -4274,7 +4950,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
-      <c r="P3" s="60"/>
+      <c r="P3" s="59"/>
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -4381,98 +5057,98 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="144" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="68" t="s">
+      <c r="F9" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="67" t="s">
+      <c r="A10" s="144"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="67" t="s">
+      <c r="E10" s="144"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67" t="s">
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67" t="s">
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="70"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="146"/>
       <c r="G11" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J11" s="56" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11" s="56" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -4483,7 +5159,7 @@
         <v>ĐN-P001</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>15</v>
@@ -4498,13 +5174,13 @@
         <v>18</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="45"/>
@@ -4519,13 +5195,13 @@
         <v>ĐN-P002</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>19</v>
@@ -4534,13 +5210,13 @@
         <v>19</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="45"/>
@@ -4561,22 +5237,22 @@
         <v>15</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="45"/>
@@ -4591,28 +5267,28 @@
         <v>ĐN-P004</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="45"/>
@@ -4627,28 +5303,28 @@
         <v>ĐN-P005</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="45"/>
@@ -4663,28 +5339,28 @@
         <v>ĐN-P006</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="45"/>
@@ -4699,37 +5375,37 @@
         <v>ĐN-P007</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G18" s="58" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J18" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
@@ -4741,28 +5417,28 @@
         <v>ĐN-P008</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="45"/>
@@ -4777,13 +5453,13 @@
         <v>ĐN-P009</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>19</v>
@@ -4792,13 +5468,13 @@
         <v>19</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="45"/>
@@ -4869,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CE6CF4-3716-4B27-8F53-2D74431FD473}">
   <dimension ref="A3:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4893,15 +5569,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
@@ -4932,13 +5608,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="24">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="24">
         <v>13</v>
       </c>
       <c r="D5" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="24">
         <v>0</v>
@@ -4953,10 +5629,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="24">
         <f>COUNTIF($J$12:$J$20,"Fail")</f>
@@ -4976,94 +5652,94 @@
       <c r="J7" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="144" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="68" t="s">
+      <c r="F9" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="67" t="s">
+      <c r="A10" s="144"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="67" t="s">
+      <c r="E10" s="144"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67" t="s">
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67" t="s">
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="70"/>
+      <c r="A11" s="144"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="146"/>
       <c r="G11" s="56" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I11" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J11" s="56" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L11" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M11" s="56" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="49.5" x14ac:dyDescent="0.25">
@@ -5072,7 +5748,7 @@
         <v>ĐK-P001</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>15</v>
@@ -5087,13 +5763,13 @@
         <v>18</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J12" s="23"/>
       <c r="K12" s="45"/>
@@ -5108,28 +5784,28 @@
         <v>ĐK-P002</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J13" s="23"/>
       <c r="K13" s="45"/>
@@ -5144,28 +5820,28 @@
         <v>ĐK-P003</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="44" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J14" s="23"/>
       <c r="K14" s="45"/>
@@ -5180,28 +5856,28 @@
         <v>ĐK-P004</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J15" s="23"/>
       <c r="K15" s="45"/>
@@ -5216,28 +5892,28 @@
         <v>ĐK-P005</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J16" s="23"/>
       <c r="K16" s="45"/>
@@ -5252,28 +5928,28 @@
         <v>ĐK-P006</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J17" s="23"/>
       <c r="K17" s="45"/>
@@ -5288,28 +5964,28 @@
         <v>ĐK-P007</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>93</v>
-      </c>
       <c r="I18" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J18" s="23"/>
       <c r="K18" s="45"/>
@@ -5324,28 +6000,28 @@
         <v>ĐK-P008</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G19" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J19" s="23"/>
       <c r="K19" s="45"/>
@@ -5360,28 +6036,28 @@
         <v>ĐK-P009</v>
       </c>
       <c r="B20" s="52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G20" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J20" s="23"/>
       <c r="K20" s="45"/>
@@ -5396,28 +6072,28 @@
         <v>ĐK-P010</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C21" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J21" s="23"/>
       <c r="K21" s="45"/>
@@ -5428,34 +6104,34 @@
     </row>
     <row r="22" spans="1:15" ht="82.5" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="str">
-        <f t="shared" ref="A22:A26" si="1">"ĐK-P0"&amp;ROW()-ROW($A$11)</f>
+        <f t="shared" ref="A22:A24" si="1">"ĐK-P0"&amp;ROW()-ROW($A$11)</f>
         <v>ĐK-P011</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" s="52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="57"/>
+        <v>83</v>
+      </c>
+      <c r="J22" s="23"/>
       <c r="K22" s="45"/>
       <c r="L22" s="24"/>
       <c r="M22" s="38"/>
@@ -5468,28 +6144,28 @@
         <v>ĐK-P012</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E23" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F23" s="52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G23" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="45"/>
@@ -5499,138 +6175,88 @@
       <c r="O23" s="38"/>
     </row>
     <row r="24" spans="1:15" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="str">
+      <c r="A24" s="95" t="str">
         <f t="shared" si="1"/>
         <v>ĐK-P013</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="53" t="s">
+      <c r="B24" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-    </row>
-    <row r="25" spans="1:15" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>ĐK-P014</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-    </row>
-    <row r="26" spans="1:15" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="54" t="str">
-        <f t="shared" si="1"/>
-        <v>ĐK-P015</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
+      <c r="D24" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="125"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="126"/>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="106"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="127"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:O9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="F9:F11"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N19" xr:uid="{FA322177-50B8-40FE-8FC0-FC281A8B0E76}">
@@ -5662,10 +6288,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415A39AE-008E-4CE2-BDD0-7016EC2BE392}">
-  <dimension ref="A2:O20"/>
+  <dimension ref="A3:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5687,513 +6313,512 @@
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="108"/>
+    <row r="3" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="106" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="75" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="103">
+      <c r="B5" s="63">
         <v>9</v>
       </c>
-      <c r="C5" s="103">
+      <c r="C5" s="63">
         <v>5</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="63">
         <f>COUNTIF($G$12:$G$20,"Fail")</f>
         <v>4</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="63">
         <v>0</v>
       </c>
-      <c r="F5" s="102"/>
+      <c r="F5" s="90"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="100">
+      <c r="B6" s="63">
         <v>4</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="63">
         <v>4</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="63">
         <f>COUNTIF($J$12:$J$20,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="63">
         <v>0</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="90"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="95" t="s">
+      <c r="F9" s="154" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="93"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="158"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92" t="s">
+      <c r="A10" s="152"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="90" t="s">
+      <c r="E10" s="152"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="90" t="s">
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="89"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="90" t="s">
+      <c r="K10" s="149"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="89"/>
-      <c r="O10" s="88"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="84" t="s">
+      <c r="A11" s="153"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="84" t="s">
+      <c r="H11" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="84" t="s">
+      <c r="K11" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="84" t="s">
-        <v>30</v>
+      <c r="N11" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="74" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="str">
+      <c r="A12" s="68" t="str">
         <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
         <v>TCTX-P001</v>
       </c>
-      <c r="B12" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" s="77" t="s">
+      <c r="B12" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="D12" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="83" t="s">
+      <c r="F12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="74" t="s">
-        <v>28</v>
+      <c r="G12" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="str">
+        <f t="shared" ref="A13:A20" si="0">"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
+        <v>TCTX-P002</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="69"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="69"/>
+    </row>
+    <row r="14" spans="1:15" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>TCTX-P003</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="69"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="69"/>
+    </row>
+    <row r="15" spans="1:15" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>TCTX-P004</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="69"/>
+    </row>
+    <row r="16" spans="1:15" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>TCTX-P005</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="69"/>
+    </row>
+    <row r="17" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>TCTX-P006</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="69"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="69"/>
+    </row>
+    <row r="18" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>TCTX-P007</v>
+      </c>
+      <c r="B18" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="79"/>
-    </row>
-    <row r="13" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="str">
-        <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>TCTX-P002</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="77" t="s">
+      <c r="C18" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="79"/>
-    </row>
-    <row r="14" spans="1:15" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="str">
-        <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>TCTX-P003</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="77" t="s">
+      <c r="D18" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="69"/>
+    </row>
+    <row r="19" spans="1:15" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>TCTX-P008</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="76" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="79"/>
-    </row>
-    <row r="15" spans="1:15" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="str">
-        <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>TCTX-P004</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="77" t="s">
+      <c r="D19" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="69"/>
+    </row>
+    <row r="20" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>TCTX-P009</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="79"/>
-    </row>
-    <row r="16" spans="1:15" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="str">
-        <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>TCTX-P005</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="79"/>
-    </row>
-    <row r="17" spans="1:15" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="str">
-        <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>TCTX-P006</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I17" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="79"/>
-    </row>
-    <row r="18" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="str">
-        <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>TCTX-P007</v>
-      </c>
-      <c r="B18" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="79"/>
-    </row>
-    <row r="19" spans="1:15" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="str">
-        <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>TCTX-P008</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I19" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="79"/>
-    </row>
-    <row r="20" spans="1:15" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="str">
-        <f>"TCTX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>TCTX-P009</v>
-      </c>
-      <c r="B20" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>84</v>
+      <c r="D20" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="109" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="74" t="s">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
+        <v>99</v>
+      </c>
+      <c r="L20" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6210,10 +6835,10 @@
     <mergeCell ref="J10:L10"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O19 G12:G20 J12:J20" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O19 G12:G20 J12:J20" xr:uid="{651DBC32-684A-456B-880B-27D6148B5E15}">
       <formula1>"Pass,Fail,Not Run"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N19" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N19" xr:uid="{4C1DF9CF-3467-4C63-B6AB-F11D14DD427F}">
       <formula1>"Passed,Failed,Not Done"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="M10" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
@@ -6227,7 +6852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E73E2F-0762-436C-830A-092207DC8CB6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -6240,10 +6865,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AC0DB3-D8CC-4DAA-8423-E4F09F06C5B0}">
-  <dimension ref="A2:O21"/>
+  <dimension ref="A3:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6260,528 +6885,527 @@
     <col min="12" max="12" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="118"/>
+    <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="107"/>
-      <c r="B4" s="117" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="105" t="s">
+      <c r="F4" s="75" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="68">
         <v>10</v>
       </c>
-      <c r="C5" s="114">
+      <c r="C5" s="63">
         <v>9</v>
       </c>
-      <c r="D5" s="103">
+      <c r="D5" s="63">
         <v>1</v>
       </c>
-      <c r="E5" s="103">
+      <c r="E5" s="63">
         <v>0</v>
       </c>
-      <c r="F5" s="102"/>
+      <c r="F5" s="90"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="113">
+      <c r="B6" s="63">
         <v>1</v>
       </c>
-      <c r="C6" s="100">
+      <c r="C6" s="63">
         <v>1</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="63">
         <v>0</v>
       </c>
-      <c r="E6" s="100">
+      <c r="E6" s="63">
         <v>0</v>
       </c>
-      <c r="F6" s="99"/>
+      <c r="F6" s="90"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="96" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="111" t="s">
+      <c r="F9" s="154" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112" t="s">
+      <c r="A10" s="162"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="111"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="112" t="s">
+      <c r="E10" s="162"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112" t="s">
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112" t="s">
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="84" t="s">
+      <c r="A11" s="162"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="84" t="s">
+      <c r="H11" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="84" t="s">
+      <c r="K11" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="84" t="s">
-        <v>30</v>
+      <c r="N11" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="74" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="66" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="str">
+      <c r="A12" s="68" t="str">
         <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
         <v>ĐX-P001</v>
       </c>
-      <c r="B12" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="77" t="s">
+      <c r="B12" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="74" t="s">
-        <v>28</v>
+      <c r="G12" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="H12" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="69"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="69"/>
+    </row>
+    <row r="13" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A13" s="68" t="str">
+        <f t="shared" ref="A13:A21" si="0">"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
+        <v>ĐX-P002</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="69"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="69"/>
+    </row>
+    <row r="14" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A14" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐX-P003</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="69"/>
+    </row>
+    <row r="15" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐX-P004</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="69"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="69"/>
+    </row>
+    <row r="16" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐX-P005</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="69"/>
+    </row>
+    <row r="17" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐX-P006</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="69"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="69"/>
+    </row>
+    <row r="18" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐX-P007</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="79"/>
-    </row>
-    <row r="13" spans="1:15" ht="132" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P002</v>
-      </c>
-      <c r="B13" s="77" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="77" t="s">
+      <c r="F18" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I18" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="69"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="69"/>
+    </row>
+    <row r="19" spans="1:15" ht="132" x14ac:dyDescent="0.25">
+      <c r="A19" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐX-P008</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="79"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="79"/>
-    </row>
-    <row r="14" spans="1:15" ht="132" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P003</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>160</v>
-      </c>
-      <c r="C14" s="77" t="s">
+      <c r="D19" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="69"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="69"/>
+    </row>
+    <row r="20" spans="1:15" ht="132" x14ac:dyDescent="0.2">
+      <c r="A20" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐX-P009</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I14" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="L14" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="79"/>
-    </row>
-    <row r="15" spans="1:15" ht="132" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P004</v>
-      </c>
-      <c r="B15" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="77" t="s">
+      <c r="D20" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="69"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="69"/>
+    </row>
+    <row r="21" spans="1:15" ht="132" x14ac:dyDescent="0.2">
+      <c r="A21" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐX-P0010</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="79"/>
-    </row>
-    <row r="16" spans="1:15" ht="132" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P005</v>
-      </c>
-      <c r="B16" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="81" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="79"/>
-    </row>
-    <row r="17" spans="1:15" ht="132" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P006</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="79"/>
-    </row>
-    <row r="18" spans="1:15" ht="132" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P007</v>
-      </c>
-      <c r="B18" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="79"/>
-    </row>
-    <row r="19" spans="1:15" ht="132" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P008</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="F19" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="79"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="79"/>
-    </row>
-    <row r="20" spans="1:15" ht="132" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P009</v>
-      </c>
-      <c r="B20" s="77" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="E20" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="F20" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="79"/>
-    </row>
-    <row r="21" spans="1:15" ht="132" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="str">
-        <f>"ĐX-P00"&amp;ROW()-ROW($A$11)</f>
-        <v>ĐX-P0010</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="83" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="74" t="s">
-        <v>28</v>
+      <c r="D21" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="H21" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="79"/>
+        <v>126</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="69"/>
       <c r="K21" s="43"/>
-      <c r="L21" s="73"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="43"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="79"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6798,11 +7422,11 @@
     <mergeCell ref="J10:L10"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J21 G12:G21 O12:O21" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J21 G12:G21 O12:O21" xr:uid="{F995D849-9231-4502-9ED9-559E41DB6036}">
       <formula1>"Pass,Fail,Not Run"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="M10" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N19" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M12:N19" xr:uid="{B39F8B03-7AA3-4834-8774-90932932B185}">
       <formula1>"Passed,Failed,Not Done"</formula1>
     </dataValidation>
   </dataValidations>
